--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_3.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_24</t>
+          <t>model_10_3_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999806498704261</v>
+        <v>0.9999839037294227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991773959285358</v>
+        <v>0.9990317628658475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998185399104121</v>
+        <v>0.9999228772875844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999831385194652</v>
+        <v>0.9999422814069087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999267467431077</v>
+        <v>0.9999288454946776</v>
       </c>
       <c r="G2" t="n">
-        <v>1.806249658468874e-05</v>
+        <v>1.502516203927011e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007678647925662327</v>
+        <v>0.0009038068640331849</v>
       </c>
       <c r="I2" t="n">
-        <v>9.578257330127529e-05</v>
+        <v>6.399407431560421e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.672721618325076e-05</v>
+        <v>1.332357221971536e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>5.625489474226302e-05</v>
+        <v>3.865882326765979e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002409002137098858</v>
+        <v>0.0002978510744873979</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004249999598198656</v>
+        <v>0.003876230390375436</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000092880621955</v>
+        <v>1.000077262098771</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004430930879805979</v>
+        <v>0.004041249542996801</v>
       </c>
       <c r="P2" t="n">
-        <v>79.84334556234924</v>
+        <v>80.2115685859151</v>
       </c>
       <c r="Q2" t="n">
-        <v>115.1907444835271</v>
+        <v>115.5589675070929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_23</t>
+          <t>model_10_3_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999806742307155</v>
+        <v>0.9999845560446422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991770329374702</v>
+        <v>0.9990316470604799</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998193717842546</v>
+        <v>0.9999289465149515</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999829263765173</v>
+        <v>0.9999521861102204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999268956105323</v>
+        <v>0.9999355842387113</v>
       </c>
       <c r="G3" t="n">
-        <v>1.803975732384832e-05</v>
+        <v>1.441625441516431e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007682036287925697</v>
+        <v>0.000903914963260624</v>
       </c>
       <c r="I3" t="n">
-        <v>9.534347389669566e-05</v>
+        <v>5.895801457398171e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.693766988243616e-05</v>
+        <v>1.103720273597523e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.614057188956592e-05</v>
+        <v>3.499760865497847e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002434631507342675</v>
+        <v>0.0002970116464315812</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004247323548288771</v>
+        <v>0.003796874295412519</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000092763692566</v>
+        <v>1.000074130985718</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004428140904911244</v>
+        <v>0.003958515094781549</v>
       </c>
       <c r="P3" t="n">
-        <v>79.84586499107023</v>
+        <v>80.29430841828658</v>
       </c>
       <c r="Q3" t="n">
-        <v>115.193263912248</v>
+        <v>115.6417073394644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_22</t>
+          <t>model_10_3_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999807054208009</v>
+        <v>0.9999849261999154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991765998459206</v>
+        <v>0.9990310616865007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998203715482605</v>
+        <v>0.9999344264349909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999826847394533</v>
+        <v>0.999960281795907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999270831266011</v>
+        <v>0.9999414886707871</v>
       </c>
       <c r="G4" t="n">
-        <v>1.801064274826767e-05</v>
+        <v>1.407073071562163e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000768607900743662</v>
+        <v>0.0009044613841751527</v>
       </c>
       <c r="I4" t="n">
-        <v>9.481575471944583e-05</v>
+        <v>5.441094407732396e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.717738284230445e-05</v>
+        <v>9.168420994473262e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>5.599656878087515e-05</v>
+        <v>3.178968253589861e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002462940695549702</v>
+        <v>0.0002983481786850449</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004243894761686211</v>
+        <v>0.003751097268216546</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000092613980156</v>
+        <v>1.000072354240406</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004424566147764447</v>
+        <v>0.003910789244766334</v>
       </c>
       <c r="P4" t="n">
-        <v>79.84909542200606</v>
+        <v>80.3428275077701</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.1964943431839</v>
+        <v>115.6902264289479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_21</t>
+          <t>model_10_3_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999807460063569</v>
+        <v>0.9999837042927436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991760968034541</v>
+        <v>0.999031041801506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998215731129109</v>
+        <v>0.9999206909638438</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999824145466356</v>
+        <v>0.9999323422044447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999273215514267</v>
+        <v>0.9999250645116006</v>
       </c>
       <c r="G5" t="n">
-        <v>1.797275791319494e-05</v>
+        <v>1.521132742492346e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000769077468805066</v>
+        <v>0.0009044799459448627</v>
       </c>
       <c r="I5" t="n">
-        <v>9.418151633424788e-05</v>
+        <v>6.580821906694331e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.744542417256461e-05</v>
+        <v>1.561790537549884e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.581347025340625e-05</v>
+        <v>4.071306222122108e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002493322856604853</v>
+        <v>0.0002941361846620774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004239428960743998</v>
+        <v>0.003900170178969562</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000092419169487</v>
+        <v>1.000078219394831</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004419910228430641</v>
+        <v>0.004066208497953573</v>
       </c>
       <c r="P5" t="n">
-        <v>79.85330679151249</v>
+        <v>80.18694036466128</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.2007057126903</v>
+        <v>115.5343392858391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_20</t>
+          <t>model_10_3_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999807756910334</v>
+        <v>0.9999834737393812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991755730286762</v>
+        <v>0.9990299831345344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999822781508225</v>
+        <v>0.9999190216455227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999821055956482</v>
+        <v>0.9999219995859014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999275372898867</v>
+        <v>0.9999215926275741</v>
       </c>
       <c r="G6" t="n">
-        <v>1.794504857066486e-05</v>
+        <v>1.542653886864414e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007695663895690973</v>
+        <v>0.000905468165092758</v>
       </c>
       <c r="I6" t="n">
-        <v>9.35436724259226e-05</v>
+        <v>6.719336849116701e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.775191504957359e-05</v>
+        <v>1.800536178638134e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.56477937377481e-05</v>
+        <v>4.259936513877418e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002527105936898818</v>
+        <v>0.0002902604493526151</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004236159648864152</v>
+        <v>0.003927663283511475</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00009227668304</v>
+        <v>1.00007932605097</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004416501735175662</v>
+        <v>0.004094872040874407</v>
       </c>
       <c r="P6" t="n">
-        <v>79.85639265345561</v>
+        <v>80.15884245713826</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.2037915746334</v>
+        <v>115.5062413783161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_19</t>
+          <t>model_10_3_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999808031274844</v>
+        <v>0.9999853168062851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991749997542507</v>
+        <v>0.9990297887568714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998240985123324</v>
+        <v>0.9999412331462327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999817598494647</v>
+        <v>0.9999679309588705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999277665879845</v>
+        <v>0.9999483114187401</v>
       </c>
       <c r="G7" t="n">
-        <v>1.791943784806074e-05</v>
+        <v>1.370611681509242e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007701015160814489</v>
+        <v>0.0009056496081089321</v>
       </c>
       <c r="I7" t="n">
-        <v>9.284850004534915e-05</v>
+        <v>4.876294271157987e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.809490813043591e-05</v>
+        <v>7.402713105457039e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>5.547170408789252e-05</v>
+        <v>2.808282790851845e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002564103359471205</v>
+        <v>0.0002990262525704802</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004233135699225899</v>
+        <v>0.003702177307354743</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000092144988075</v>
+        <v>1.000070479329831</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004413349049740869</v>
+        <v>0.003859786659892366</v>
       </c>
       <c r="P7" t="n">
-        <v>79.85924904199088</v>
+        <v>80.39533668384109</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.2066479631687</v>
+        <v>115.7427356050189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_18</t>
+          <t>model_10_3_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999808529736816</v>
+        <v>0.9999831165613652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991742726477009</v>
+        <v>0.9990287078119857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998258154462164</v>
+        <v>0.9999172093579959</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999981375259179</v>
+        <v>0.9999107387581234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999281082407044</v>
+        <v>0.9999178165074407</v>
       </c>
       <c r="G8" t="n">
-        <v>1.787290861094003e-05</v>
+        <v>1.575994886829575e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007707802381295302</v>
+        <v>0.0009066586227117479</v>
       </c>
       <c r="I8" t="n">
-        <v>9.194222723366649e-05</v>
+        <v>6.86971494013746e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.847643600617447e-05</v>
+        <v>2.060477462923533e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.520933161992048e-05</v>
+        <v>4.465096201530496e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002603994153205286</v>
+        <v>0.0002868330559304531</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004227636291231784</v>
+        <v>0.003969880208305504</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000091905726328</v>
+        <v>1.000081040505447</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004407615520563101</v>
+        <v>0.004138886227558</v>
       </c>
       <c r="P8" t="n">
-        <v>79.8644489540318</v>
+        <v>80.11607743587456</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.2118478752096</v>
+        <v>115.4634763570524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_17</t>
+          <t>model_10_3_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999808898604912</v>
+        <v>0.9999856537315251</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991734884654283</v>
+        <v>0.999027545815017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999827597933945</v>
+        <v>0.9999494616229835</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999809307707971</v>
+        <v>0.9999741056968124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999284337342155</v>
+        <v>0.9999559066437522</v>
       </c>
       <c r="G9" t="n">
-        <v>1.783847639335907e-05</v>
+        <v>1.339161189283063e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007715122378593585</v>
+        <v>0.0009077432958763377</v>
       </c>
       <c r="I9" t="n">
-        <v>9.100135223510837e-05</v>
+        <v>4.193520369413554e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.89173850224757e-05</v>
+        <v>5.9773566908187e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>5.495936862879204e-05</v>
+        <v>2.395628019247712e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002647904238793068</v>
+        <v>0.0002997293416095207</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004223562050373958</v>
+        <v>0.003659455136059279</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000091728669642</v>
+        <v>1.000068862088679</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004403367830837115</v>
+        <v>0.003815245717317766</v>
       </c>
       <c r="P9" t="n">
-        <v>79.86830567683846</v>
+        <v>80.441764050321</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.2157045980163</v>
+        <v>115.7891629714988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_16</t>
+          <t>model_10_3_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99998093602247</v>
+        <v>0.9999829581318329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991725580787897</v>
+        <v>0.9990272836689925</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998296756753223</v>
+        <v>0.9999169074050369</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999980440118771</v>
+        <v>0.9999005041792881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999288308805873</v>
+        <v>0.999915411732002</v>
       </c>
       <c r="G10" t="n">
-        <v>1.779538621234813e-05</v>
+        <v>1.590783588244605e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007723807129471835</v>
+        <v>0.0009079879976832708</v>
       </c>
       <c r="I10" t="n">
-        <v>8.990462944487682e-05</v>
+        <v>6.89477007563799e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.940413009181313e-05</v>
+        <v>2.296729150546856e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.465437976834498e-05</v>
+        <v>4.595749613092423e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000269475187662189</v>
+        <v>0.0002814836178844424</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004218457800233176</v>
+        <v>0.003988462847068535</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000091507092144</v>
+        <v>1.000081800967202</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004398046282200586</v>
+        <v>0.004158259967724539</v>
       </c>
       <c r="P10" t="n">
-        <v>79.87314267163649</v>
+        <v>80.09739749468002</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.2205415928143</v>
+        <v>115.4447964158578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_15</t>
+          <t>model_10_3_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999809893444838</v>
+        <v>0.9999828265780768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991714907077694</v>
+        <v>0.9990258181814573</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998321113168851</v>
+        <v>0.9999169653863839</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999798741114968</v>
+        <v>0.999890914609584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999293023547474</v>
+        <v>0.9999134188354483</v>
       </c>
       <c r="G11" t="n">
-        <v>1.774561245308212e-05</v>
+        <v>1.60306355392592e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007733770569424302</v>
+        <v>0.0009093559659699264</v>
       </c>
       <c r="I11" t="n">
-        <v>8.861899128030086e-05</v>
+        <v>6.889958960326139e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.996563037150237e-05</v>
+        <v>2.518091657264358e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.429231082590161e-05</v>
+        <v>4.704025308795248e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002745468489703946</v>
+        <v>0.0002758844699138213</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004212554148385765</v>
+        <v>0.004003827611081577</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000091251146478</v>
+        <v>1.000082432425231</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004391891299671787</v>
+        <v>0.004174278841551061</v>
       </c>
       <c r="P11" t="n">
-        <v>79.87874451668026</v>
+        <v>80.0820178905258</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.2261434378581</v>
+        <v>115.4294168117036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_14</t>
+          <t>model_10_3_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999810507172727</v>
+        <v>0.9999857454632691</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991702838058957</v>
+        <v>0.9990242591462063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998348746890617</v>
+        <v>0.9999576740919793</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999792602146813</v>
+        <v>0.9999800934851392</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999298555283818</v>
+        <v>0.9999634499299277</v>
       </c>
       <c r="G12" t="n">
-        <v>1.76883236484814e-05</v>
+        <v>1.33059843364173e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007745036468647698</v>
+        <v>0.0009108112569430111</v>
       </c>
       <c r="I12" t="n">
-        <v>8.716036256106452e-05</v>
+        <v>3.512074742337984e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.057463885840732e-05</v>
+        <v>4.59515511702668e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>5.386750070973592e-05</v>
+        <v>1.985795127020325e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002798032805611682</v>
+        <v>0.0003015738341019033</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004205748880815568</v>
+        <v>0.003647736878725945</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000090956557091</v>
+        <v>1.000068421776308</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00438479631777228</v>
+        <v>0.003803028589509616</v>
       </c>
       <c r="P12" t="n">
-        <v>79.88521163389284</v>
+        <v>80.4545933476544</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.2326105550707</v>
+        <v>115.8019922688322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_13</t>
+          <t>model_10_3_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999811062379768</v>
+        <v>0.9999826413314729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991688955677821</v>
+        <v>0.9990240821197071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998379590332404</v>
+        <v>0.9999172005961336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999785392481846</v>
+        <v>0.9998804866982265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999304498543646</v>
+        <v>0.9999113831810821</v>
       </c>
       <c r="G13" t="n">
-        <v>1.763649750837464e-05</v>
+        <v>1.620355511258673e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007757995062071751</v>
+        <v>0.0009109765034094781</v>
       </c>
       <c r="I13" t="n">
-        <v>8.553231077820931e-05</v>
+        <v>6.870441972744881e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>2.128986445354872e-05</v>
+        <v>2.758806169920697e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>5.341108761587901e-05</v>
+        <v>4.81462407133279e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002855008996328487</v>
+        <v>0.0002708979506965665</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004199583016011785</v>
+        <v>0.004025363972684549</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000090690057712</v>
+        <v>1.00008332160893</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004378367959338702</v>
+        <v>0.004196732050653887</v>
       </c>
       <c r="P13" t="n">
-        <v>79.89108016209417</v>
+        <v>80.06055977681525</v>
       </c>
       <c r="Q13" t="n">
-        <v>115.238479083272</v>
+        <v>115.4079586979931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_12</t>
+          <t>model_10_3_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999811866829735</v>
+        <v>0.9999824316473738</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991673148015491</v>
+        <v>0.9990223358880247</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998416038919022</v>
+        <v>0.9999173795369731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999777708435409</v>
+        <v>0.9998705132839323</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999312061722799</v>
+        <v>0.9999094011099329</v>
       </c>
       <c r="G14" t="n">
-        <v>1.756140563503829e-05</v>
+        <v>1.639928601504737e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007772750820980355</v>
+        <v>0.0009126065340342507</v>
       </c>
       <c r="I14" t="n">
-        <v>8.360839493117419e-05</v>
+        <v>6.855594007697867e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>2.205215045596612e-05</v>
+        <v>2.98902922025737e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>5.283027269357015e-05</v>
+        <v>4.922311613977619e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002912743649685105</v>
+        <v>0.0002662654565745492</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004190633082845394</v>
+        <v>0.004049603192295187</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000090303921727</v>
+        <v>1.000084328092606</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0043690370089885</v>
+        <v>0.004222003184025452</v>
       </c>
       <c r="P14" t="n">
-        <v>79.899613850815</v>
+        <v>80.03654551949934</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.2470127719928</v>
+        <v>115.3839444406772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_11</t>
+          <t>model_10_3_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999812849497214</v>
+        <v>0.9999822333741324</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991655134745883</v>
+        <v>0.9990205843239082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998457611731465</v>
+        <v>0.9999177464195375</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999769348944805</v>
+        <v>0.9998608535648351</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999320949677503</v>
+        <v>0.9999076291963944</v>
       </c>
       <c r="G15" t="n">
-        <v>1.746967793927405e-05</v>
+        <v>1.658436538269008e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007789565417468886</v>
+        <v>0.0009142415422522029</v>
       </c>
       <c r="I15" t="n">
-        <v>8.141400002919282e-05</v>
+        <v>6.825151211595448e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>2.288144303340823e-05</v>
+        <v>3.212011032739147e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>5.214772153130053e-05</v>
+        <v>5.018581122167298e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002969906365845869</v>
+        <v>0.0002617163228426816</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004179674381967338</v>
+        <v>0.004072390622556986</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000089832241337</v>
+        <v>1.000085279804165</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004357611773526428</v>
+        <v>0.004245760722369979</v>
       </c>
       <c r="P15" t="n">
-        <v>79.91008773812254</v>
+        <v>80.01410030166436</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.2574866593004</v>
+        <v>115.3614992228422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_10</t>
+          <t>model_10_3_0</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999813967857432</v>
+        <v>0.99998556168627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991634250096765</v>
+        <v>0.9990198693426502</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999850578539932</v>
+        <v>0.9999663610017522</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999759675158666</v>
+        <v>0.9999850061100711</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999331257248057</v>
+        <v>0.9999711271081339</v>
       </c>
       <c r="G16" t="n">
-        <v>1.736528392207352e-05</v>
+        <v>1.347753209829981e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000780906032069001</v>
+        <v>0.0009149089458724974</v>
       </c>
       <c r="I16" t="n">
-        <v>7.887118310290945e-05</v>
+        <v>2.791261466757508e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>2.384111861897648e-05</v>
+        <v>3.461140762827714e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>5.135615086094297e-05</v>
+        <v>1.568687771520139e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003030734583490975</v>
+        <v>0.0003035948799129823</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004167167373897228</v>
+        <v>0.003671175846823441</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000089295428433</v>
+        <v>1.000069303905904</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004344572316229697</v>
+        <v>0.003827465403004375</v>
       </c>
       <c r="P16" t="n">
-        <v>79.92207504330584</v>
+        <v>80.42897309600443</v>
       </c>
       <c r="Q16" t="n">
-        <v>115.2694739644837</v>
+        <v>115.7763720171822</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_9</t>
+          <t>model_10_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999815869366792</v>
+        <v>0.9999821234162439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999161015013396</v>
+        <v>0.9990189452519612</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998565377406121</v>
+        <v>0.9999185491324222</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999749560594124</v>
+        <v>0.9998525324688294</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999345204264307</v>
+        <v>0.9999064744667633</v>
       </c>
       <c r="G17" t="n">
-        <v>1.71877863699487e-05</v>
+        <v>1.668700624497469e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007831556578102054</v>
+        <v>0.0009157715439677975</v>
       </c>
       <c r="I17" t="n">
-        <v>7.572565629718569e-05</v>
+        <v>6.758544544912715e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>2.484452106232708e-05</v>
+        <v>3.404092505346266e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>5.028508867975639e-05</v>
+        <v>5.08131852512949e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003083388626724294</v>
+        <v>0.0002570466445285028</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0041458155253157</v>
+        <v>0.004084973224511354</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00008838270394</v>
+        <v>1.000085807602029</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004322311475249634</v>
+        <v>0.004258878991739121</v>
       </c>
       <c r="P17" t="n">
-        <v>79.94262304230399</v>
+        <v>80.00176042111534</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.2900219634818</v>
+        <v>115.3491593422931</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_8</t>
+          <t>model_10_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999817960121443</v>
+        <v>0.9999820346148657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991583900205058</v>
+        <v>0.9990173615453222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998630816730325</v>
+        <v>0.999919519769814</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999738616125092</v>
+        <v>0.9998446012235586</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999360624795446</v>
+        <v>0.9999055307872566</v>
       </c>
       <c r="G18" t="n">
-        <v>1.699262360055789e-05</v>
+        <v>1.676989843360572e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007856059734493363</v>
+        <v>0.000917249864598638</v>
       </c>
       <c r="I18" t="n">
-        <v>7.227148249978382e-05</v>
+        <v>6.678004014844595e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.593025311971709e-05</v>
+        <v>3.587174790447785e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.910086780975046e-05</v>
+        <v>5.132589402646189e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003129303679937093</v>
+        <v>0.0002524297877483165</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004122211008737652</v>
+        <v>0.004095106644961242</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000087379141707</v>
+        <v>1.000086233848645</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004297702065532773</v>
+        <v>0.004269443812876634</v>
       </c>
       <c r="P18" t="n">
-        <v>79.96546242784396</v>
+        <v>79.99185007716252</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.3128613490218</v>
+        <v>115.3392489983403</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_7</t>
+          <t>model_10_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999982079548659</v>
+        <v>0.9999819555961619</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999155195113846</v>
+        <v>0.9990159102505244</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999870942911417</v>
+        <v>0.9999204265118736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999972625975208</v>
+        <v>0.999837562855097</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999379660568662</v>
+        <v>0.9999047279949953</v>
       </c>
       <c r="G19" t="n">
-        <v>1.672795470989925e-05</v>
+        <v>1.684365892509667e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007885882785761209</v>
+        <v>0.0009186045845879409</v>
       </c>
       <c r="I19" t="n">
-        <v>6.812197698861653e-05</v>
+        <v>6.602765324536471e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.715605130628676e-05</v>
+        <v>3.749646197811458e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>4.763901414745165e-05</v>
+        <v>5.176205761173965e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003164516461762862</v>
+        <v>0.0002481066031393011</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004089982238335425</v>
+        <v>0.004104102694267856</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000086018166437</v>
+        <v>1.000086613138423</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004264101249651772</v>
+        <v>0.004278822842626619</v>
       </c>
       <c r="P19" t="n">
-        <v>79.99685860656852</v>
+        <v>79.98307259382796</v>
       </c>
       <c r="Q19" t="n">
-        <v>115.3442575277463</v>
+        <v>115.3304715150058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_6</t>
+          <t>model_10_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999823849891765</v>
+        <v>0.9999818356585646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991512902782219</v>
+        <v>0.9990144533157148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998797876180459</v>
+        <v>0.9999210764339462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999711959574795</v>
+        <v>0.9998307476809559</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999400820729003</v>
+        <v>0.9999037765026471</v>
       </c>
       <c r="G20" t="n">
-        <v>1.64428393941991e-05</v>
+        <v>1.695561540748514e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007922332712286893</v>
+        <v>0.0009199645692806264</v>
       </c>
       <c r="I20" t="n">
-        <v>6.345335391597722e-05</v>
+        <v>6.548836773379846e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.857468211042036e-05</v>
+        <v>3.906965460107092e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>4.601401801319879e-05</v>
+        <v>5.227901116743469e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003193575954891932</v>
+        <v>0.0002443085646391992</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004054977113893381</v>
+        <v>0.00411771968539447</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000084552051953</v>
+        <v>1.00008718883889</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004227605884591633</v>
+        <v>0.004293019537256551</v>
       </c>
       <c r="P20" t="n">
-        <v>80.03124094141361</v>
+        <v>79.9698229730521</v>
       </c>
       <c r="Q20" t="n">
-        <v>115.3786398625914</v>
+        <v>115.3172218942299</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_5</t>
+          <t>model_10_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999828618403658</v>
+        <v>0.9999817342131028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991462141641688</v>
+        <v>0.9990131261323527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998908910812059</v>
+        <v>0.9999217458802206</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999696730254848</v>
+        <v>0.9998246156805648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999429143432477</v>
+        <v>0.9999029850504066</v>
       </c>
       <c r="G21" t="n">
-        <v>1.599771974024645e-05</v>
+        <v>1.70503102931667e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007969716008815987</v>
+        <v>0.0009212034366924604</v>
       </c>
       <c r="I21" t="n">
-        <v>5.759246033637261e-05</v>
+        <v>6.493288163515985e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.008548732445927e-05</v>
+        <v>4.04851456185446e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>4.383897383041593e-05</v>
+        <v>5.270901362685223e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003218110028828278</v>
+        <v>0.0002408120827105128</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003999714957374644</v>
+        <v>0.004129202137600763</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000082263166244</v>
+        <v>1.000087675777107</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004169991103661458</v>
+        <v>0.004304990821225218</v>
       </c>
       <c r="P21" t="n">
-        <v>80.08612872423099</v>
+        <v>79.95868431077528</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.4335276454088</v>
+        <v>115.3060832319531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_4</t>
+          <t>model_10_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999833571784669</v>
+        <v>0.9999816028530267</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991398236961635</v>
+        <v>0.999011816266007</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999033631370816</v>
+        <v>0.9999222655712866</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999677710827701</v>
+        <v>0.9998184918698805</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999459721556359</v>
+        <v>0.9999020809808451</v>
       </c>
       <c r="G22" t="n">
-        <v>1.553534336576621e-05</v>
+        <v>1.717292915808453e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008029368222554787</v>
+        <v>0.0009224261394297691</v>
       </c>
       <c r="I22" t="n">
-        <v>5.100916365194109e-05</v>
+        <v>6.450165784062515e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>3.197228527736097e-05</v>
+        <v>4.189874615074733e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>4.149072446465103e-05</v>
+        <v>5.320020199568624e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003253237513165514</v>
+        <v>0.0002378393148676944</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003941489993107455</v>
+        <v>0.004144023305687907</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000079885543359</v>
+        <v>1.000088306305472</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004109287382123124</v>
+        <v>0.004320442957121881</v>
       </c>
       <c r="P22" t="n">
-        <v>80.14478582528564</v>
+        <v>79.94435260032533</v>
       </c>
       <c r="Q22" t="n">
-        <v>115.4921847464635</v>
+        <v>115.2917515215031</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_3</t>
+          <t>model_10_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999837618191844</v>
+        <v>0.9999815016358574</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991316832093219</v>
+        <v>0.9990106343080012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999166656302276</v>
+        <v>0.9999228207623643</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999652947920359</v>
+        <v>0.9998131765076538</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999489443938593</v>
+        <v>0.9999013757638451</v>
       </c>
       <c r="G23" t="n">
-        <v>1.515762901767318e-05</v>
+        <v>1.726741094277269e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008105356093959615</v>
+        <v>0.0009235294453462283</v>
       </c>
       <c r="I23" t="n">
-        <v>4.398752584860249e-05</v>
+        <v>6.404097721919089e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.442885783980535e-05</v>
+        <v>4.312572707161948e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.920819184420392e-05</v>
+        <v>5.358335214540518e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003286358226442833</v>
+        <v>0.0002349666874421176</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003893279981926959</v>
+        <v>0.004155407434027702</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000077943267915</v>
+        <v>1.000088792147884</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004059024970958193</v>
+        <v>0.004332311731373494</v>
       </c>
       <c r="P23" t="n">
-        <v>80.19401317446497</v>
+        <v>79.93337918700429</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.5414120956428</v>
+        <v>115.2807781081821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_2</t>
+          <t>model_10_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999839509740386</v>
+        <v>0.9999814204878738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991217594052009</v>
+        <v>0.9990095826653651</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999300933077232</v>
+        <v>0.9999233832191562</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999620052555112</v>
+        <v>0.9998084781135153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999514343796092</v>
+        <v>0.999900807161556</v>
       </c>
       <c r="G24" t="n">
-        <v>1.498106126411367e-05</v>
+        <v>1.73431590235733e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008197990449382586</v>
+        <v>0.0009245111075851813</v>
       </c>
       <c r="I24" t="n">
-        <v>3.689981026936206e-05</v>
+        <v>6.357426772964386e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.769220049107932e-05</v>
+        <v>4.421028908651732e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.729600538022069e-05</v>
+        <v>5.389227840808058e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003340742544632534</v>
+        <v>0.0002321984988868142</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003870537593683037</v>
+        <v>0.004164511858978588</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000077035324615</v>
+        <v>1.000089181658206</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004035314392163493</v>
+        <v>0.004341803750543298</v>
       </c>
       <c r="P24" t="n">
-        <v>80.21744747396635</v>
+        <v>79.92462484382921</v>
       </c>
       <c r="Q24" t="n">
-        <v>115.5648463951442</v>
+        <v>115.272023765007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_1</t>
+          <t>model_10_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999837179262997</v>
+        <v>0.9999813284657826</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991107363931403</v>
+        <v>0.9990085479998478</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999422345610478</v>
+        <v>0.9999238275655056</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999576312185465</v>
+        <v>0.9998040571035737</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999527817818593</v>
+        <v>0.9999002072934221</v>
       </c>
       <c r="G25" t="n">
-        <v>1.519860109878441e-05</v>
+        <v>1.742905760634029e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008300885428425063</v>
+        <v>0.0009254769224289806</v>
       </c>
       <c r="I25" t="n">
-        <v>3.049112564246755e-05</v>
+        <v>6.320556268271352e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>4.203140793786332e-05</v>
+        <v>4.523082063600509e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.626126679016544e-05</v>
+        <v>5.42181916593593e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003409260324982219</v>
+        <v>0.0002298420045294763</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003898538328500108</v>
+        <v>0.004174812283964429</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000078153953762</v>
+        <v>1.000089623364244</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004064507176231238</v>
+        <v>0.004352542685945605</v>
       </c>
       <c r="P25" t="n">
-        <v>80.18861433464409</v>
+        <v>79.91474353445929</v>
       </c>
       <c r="Q25" t="n">
-        <v>115.5360132558219</v>
+        <v>115.2621424556371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_3_0</t>
+          <t>model_10_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999830145879369</v>
+        <v>0.999981239162788</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990989837685677</v>
+        <v>0.9990076067631359</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999529792475654</v>
+        <v>0.9999242212592282</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999520372949158</v>
+        <v>0.9997999797737689</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999528613020324</v>
+        <v>0.9998996417557132</v>
       </c>
       <c r="G26" t="n">
-        <v>1.585513658742782e-05</v>
+        <v>1.751241803178458e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008410591020005213</v>
+        <v>0.0009263555255840665</v>
       </c>
       <c r="I26" t="n">
-        <v>2.481961006951292e-05</v>
+        <v>6.28788876403245e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>4.758078835505668e-05</v>
+        <v>4.617201818098155e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.62001992122848e-05</v>
+        <v>5.452545291065303e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003488974399966429</v>
+        <v>0.0002277037786474665</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003981850899698256</v>
+        <v>0.004184784108145195</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000081529977903</v>
+        <v>1.000090052018618</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00415136653606609</v>
+        <v>0.004362939031326269</v>
       </c>
       <c r="P26" t="n">
-        <v>80.10403407045067</v>
+        <v>79.90520065373374</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.4514329916285</v>
+        <v>115.2525995749116</v>
       </c>
     </row>
   </sheetData>
